--- a/SortingMadness.xlsx
+++ b/SortingMadness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bartl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B11BF7-6EB6-4550-90DB-903EF72267A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B435AD3E-46D7-40FA-A506-62A793146537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>o zwrócenie błędu, gdy zbiór danych jest pusty, nie wybrano odpowiedniej liczby algorytmów sortujących lub podano niepoprawne nazwy kolumn</t>
+  </si>
+  <si>
+    <t>oby poszło</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,10 @@
     <cellStyle name="Odwiedzone hiperłącze" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -408,27 +414,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:F9" totalsRowCount="1" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:F9" totalsRowCount="1" headerRowDxfId="17">
   <autoFilter ref="A1:F8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D419CC41-4356-4357-9EEE-A8DFED127DCF}" name="Kolumna1" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="16" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="15" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="14" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="13" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="12" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D419CC41-4356-4357-9EEE-A8DFED127DCF}" name="Kolumna1" dataDxfId="7" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C43" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A4:C43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:D43" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A4:D43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{383AB740-DCC2-4070-A0F4-E58683987CD1}" name="Kolumna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -798,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +848,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -859,7 +866,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>1.5</v>
@@ -877,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -895,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -913,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -931,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -954,6 +961,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="3">
+        <f>SUM(C2:C4)</f>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -971,10 +984,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C18"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -984,12 +997,15 @@
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -999,8 +1015,11 @@
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1008,105 +1027,111 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
